--- a/B0007/models/lstm/test_results_B0007.xlsx
+++ b/B0007/models/lstm/test_results_B0007.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leonardodalronco/Documents/Università degli studi Guglielmo Marconi/Laurea/Progetto/Progetti/battery_LSTM_explainability/B0007/models/lstm/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE4D3540-E071-9F4C-90B5-2AC1ED15D08B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -28,17 +34,17 @@
     <t>RMSE</t>
   </si>
   <si>
-    <t>MAPE (%)</t>
+    <t>MAE</t>
   </si>
   <si>
-    <t>MAE</t>
+    <t>MAPE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,17 +77,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -119,7 +133,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -153,6 +167,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -187,9 +202,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -362,14 +378,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G167"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -383,41 +401,41 @@
         <v>3</v>
       </c>
       <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>1.880637027686859</v>
+        <v>1.8806370276868589</v>
       </c>
       <c r="B2">
         <v>1.88405454158783</v>
       </c>
       <c r="D2">
-        <v>6.597546646382369E-05</v>
+        <v>6.5975466463823694E-5</v>
       </c>
       <c r="E2">
-        <v>0.008122528329518075</v>
+        <v>8.1225283295180747E-3</v>
       </c>
       <c r="F2">
-        <v>0.008122528329518075</v>
+        <v>2.97847850747126E-3</v>
       </c>
       <c r="G2">
-        <v>0.00486921396754383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>4.8692139675438296E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1.880662671701139</v>
       </c>
       <c r="B3">
-        <v>1.879518270492554</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1.8795182704925539</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1.880770900983344</v>
       </c>
@@ -425,15 +443,15 @@
         <v>1.879369378089905</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1.879450872828506</v>
       </c>
       <c r="B5">
-        <v>1.880162954330444</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>1.8801629543304439</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1.88070035171174</v>
       </c>
@@ -441,7 +459,7 @@
         <v>1.879763722419739</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1.879935252356608</v>
       </c>
@@ -449,63 +467,63 @@
         <v>1.879980325698853</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1.88150881240388</v>
+        <v>1.8815088124038799</v>
       </c>
       <c r="B8">
         <v>1.878416061401367</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1.869690787038584</v>
+        <v>1.8696907870385839</v>
       </c>
       <c r="B9">
-        <v>1.880383014678955</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>1.8803830146789551</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>1.870052380139199</v>
+        <v>1.8700523801391991</v>
       </c>
       <c r="B10">
-        <v>1.870925784111023</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>1.8709257841110229</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>1.870044239418858</v>
+        <v>1.8700442394188579</v>
       </c>
       <c r="B11">
         <v>1.87062656879425</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>1.859651898776636</v>
+        <v>1.8596518987766359</v>
       </c>
       <c r="B12">
-        <v>1.871151566505432</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>1.8711515665054319</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1.859074656086221</v>
       </c>
       <c r="B13">
-        <v>1.859008550643921</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+        <v>1.8590085506439209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>1.859008457770923</v>
+        <v>1.8590084577709229</v>
       </c>
       <c r="B14">
-        <v>1.860376954078674</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>1.8603769540786741</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>1.859362258695705</v>
       </c>
@@ -513,7 +531,7 @@
         <v>1.859080910682678</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1.858735545060104</v>
       </c>
@@ -521,63 +539,63 @@
         <v>1.862607002258301</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>1.847817291322145</v>
+        <v>1.8478172913221449</v>
       </c>
       <c r="B17">
         <v>1.862436175346375</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>1.848525291613705</v>
+        <v>1.8485252916137049</v>
       </c>
       <c r="B18">
         <v>1.85243809223175</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1.848378951850034</v>
       </c>
       <c r="B19">
-        <v>1.852546095848083</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>1.8525460958480831</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1.880780543760977</v>
       </c>
       <c r="B20">
-        <v>1.850878477096558</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>1.8508784770965581</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1.88147215974436</v>
       </c>
       <c r="B21">
-        <v>1.877589583396912</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>1.8775895833969121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1.881095431324479</v>
       </c>
       <c r="B22">
-        <v>1.876481056213379</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>1.8764810562133789</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1.871008964978</v>
       </c>
       <c r="B23">
-        <v>1.877944946289062</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1.8779449462890621</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1.870199515194138</v>
       </c>
@@ -585,39 +603,39 @@
         <v>1.871377229690552</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1.870671536280099</v>
       </c>
       <c r="B25">
-        <v>1.869858264923096</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1.8698582649230959</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>1.859612464402017</v>
+        <v>1.8596124644020171</v>
       </c>
       <c r="B26">
         <v>1.873115062713623</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1.860033909718346</v>
       </c>
       <c r="B27">
-        <v>1.863404154777527</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>1.8634041547775271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>1.859165310916077</v>
+        <v>1.8591653109160771</v>
       </c>
       <c r="B28">
         <v>1.861747622489929</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1.848139817877829</v>
       </c>
@@ -625,7 +643,7 @@
         <v>1.861945271492004</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1.849201702126164</v>
       </c>
@@ -633,23 +651,23 @@
         <v>1.85202944278717</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>1.883467743795085</v>
+        <v>1.8834677437950851</v>
       </c>
       <c r="B31">
         <v>1.851733446121216</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1.862821111790584</v>
       </c>
       <c r="B32">
-        <v>1.863324403762817</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.8633244037628169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1.852085039652352</v>
       </c>
@@ -657,31 +675,31 @@
         <v>1.856728076934814</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1.846950464820871</v>
       </c>
       <c r="B34">
-        <v>1.847212195396423</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1.8472121953964229</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>1.836828431169018</v>
+        <v>1.8368284311690179</v>
       </c>
       <c r="B35">
         <v>1.84119701385498</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1.837161961967227</v>
       </c>
       <c r="B36">
-        <v>1.835082292556763</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.8350822925567629</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1.831672258371885</v>
       </c>
@@ -689,15 +707,15 @@
         <v>1.830425024032593</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>1.821147095131778</v>
+        <v>1.8211470951317781</v>
       </c>
       <c r="B38">
         <v>1.826124310493469</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1.816506091511515</v>
       </c>
@@ -705,47 +723,47 @@
         <v>1.819937109947205</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1.811381560150455</v>
       </c>
       <c r="B40">
-        <v>1.813358783721924</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.8133587837219241</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>1.811605633393958</v>
+        <v>1.8116056333939581</v>
       </c>
       <c r="B41">
-        <v>1.80749785900116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1.8074978590011599</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>1.80605489555574</v>
+        <v>1.8060548955557401</v>
       </c>
       <c r="B42">
-        <v>1.805490493774414</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>1.8054904937744141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>1.813204182699406</v>
+        <v>1.8132041826994061</v>
       </c>
       <c r="B43">
-        <v>1.799215793609619</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>1.7992157936096189</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1.806264193828353</v>
       </c>
       <c r="B44">
-        <v>1.809314846992493</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1.8093148469924929</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1.795831024990046</v>
       </c>
@@ -753,103 +771,103 @@
         <v>1.800536155700684</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>1.785885260039045</v>
+        <v>1.7858852600390449</v>
       </c>
       <c r="B46">
         <v>1.792564392089844</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>1.780326860450275</v>
+        <v>1.7803268604502751</v>
       </c>
       <c r="B47">
         <v>1.783991813659668</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1.815075689957558</v>
       </c>
       <c r="B48">
-        <v>1.778040051460266</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.7780400514602659</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>1.815702515484584</v>
+        <v>1.8157025154845841</v>
       </c>
       <c r="B49">
-        <v>1.811377882957458</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.8113778829574581</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>1.800243217805667</v>
+        <v>1.8002432178056671</v>
       </c>
       <c r="B50">
         <v>1.800086498260498</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1.790447620560931</v>
       </c>
       <c r="B51">
-        <v>1.790428400039673</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1.7904284000396731</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>1.780343032300132</v>
+        <v>1.7803430323001319</v>
       </c>
       <c r="B52">
-        <v>1.786342144012451</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1.7863421440124509</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>1.775328769596812</v>
+        <v>1.7753287695968121</v>
       </c>
       <c r="B53">
         <v>1.77471399307251</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
-        <v>1.770262973473285</v>
+        <v>1.7702629734732851</v>
       </c>
       <c r="B54">
         <v>1.773160576820374</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1.760081061854204</v>
       </c>
       <c r="B55">
-        <v>1.763930916786194</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1.7639309167861941</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>1.749647593537689</v>
+        <v>1.7496475935376889</v>
       </c>
       <c r="B56">
-        <v>1.754809737205505</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1.7548097372055049</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>1.749650075059311</v>
+        <v>1.7496500750593109</v>
       </c>
       <c r="B57">
         <v>1.744404077529907</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1.745028739214683</v>
       </c>
@@ -857,31 +875,31 @@
         <v>1.745202422142029</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
-        <v>1.739645745528673</v>
+        <v>1.7396457455286729</v>
       </c>
       <c r="B59">
         <v>1.740466952323914</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>1.728564227771796</v>
+        <v>1.7285642277717961</v>
       </c>
       <c r="B60">
         <v>1.732730627059937</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>1.723900324588418</v>
+        <v>1.7239003245884179</v>
       </c>
       <c r="B61">
-        <v>1.722654938697815</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1.7226549386978149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1.713978877648519</v>
       </c>
@@ -889,55 +907,55 @@
         <v>1.722095131874084</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>1.713970199700461</v>
+        <v>1.7139701997004611</v>
       </c>
       <c r="B63">
         <v>1.710024952888489</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1.703652117363877</v>
       </c>
       <c r="B64">
-        <v>1.70928680896759</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.7092868089675901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>1.704013747438249</v>
+        <v>1.7040137474382491</v>
       </c>
       <c r="B65">
         <v>1.696766138076782</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1.693571615734303</v>
       </c>
       <c r="B66">
-        <v>1.698917388916016</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1.6989173889160161</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>1.687657736387766</v>
+        <v>1.6876577363877661</v>
       </c>
       <c r="B67">
-        <v>1.69162654876709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1.6916265487670901</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>1.683074435658315</v>
+        <v>1.6830744356583149</v>
       </c>
       <c r="B68">
-        <v>1.68391752243042</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.6839175224304199</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1.677927014202548</v>
       </c>
@@ -945,39 +963,39 @@
         <v>1.679742574691772</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1.673206027596617</v>
       </c>
       <c r="B70">
-        <v>1.674409985542297</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1.6744099855422969</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>1.667436720825399</v>
+        <v>1.6674367208253991</v>
       </c>
       <c r="B71">
         <v>1.672144412994385</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>1.662266263066753</v>
+        <v>1.6622662630667531</v>
       </c>
       <c r="B72">
         <v>1.663444519042969</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>1.657424306576306</v>
+        <v>1.6574243065763059</v>
       </c>
       <c r="B73">
         <v>1.658269882202148</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1.652538684928734</v>
       </c>
@@ -985,159 +1003,159 @@
         <v>1.653668999671936</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>1.647217462757332</v>
+        <v>1.6472174627573319</v>
       </c>
       <c r="B75">
-        <v>1.648821830749512</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1.6488218307495119</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>1.636413681089807</v>
+        <v>1.6364136810898069</v>
       </c>
       <c r="B76">
         <v>1.643592000007629</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>1.63625543120485</v>
+        <v>1.6362554312048501</v>
       </c>
       <c r="B77">
         <v>1.633836984634399</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>1.641119179218384</v>
+        <v>1.6411191792183839</v>
       </c>
       <c r="B78">
-        <v>1.634237170219421</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>1.6342371702194209</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>1.631570078965697</v>
+        <v>1.6315700789656971</v>
       </c>
       <c r="B79">
-        <v>1.635347008705139</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1.6353470087051389</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>1.621213282987236</v>
+        <v>1.6212132829872361</v>
       </c>
       <c r="B80">
         <v>1.628686666488647</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>1.616427321476212</v>
+        <v>1.6164273214762119</v>
       </c>
       <c r="B81">
         <v>1.620272636413574</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>1.615823510161921</v>
+        <v>1.6158235101619209</v>
       </c>
       <c r="B82">
         <v>1.618096232414246</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1.61672418029789</v>
       </c>
       <c r="B83">
-        <v>1.612324237823486</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1.6123242378234861</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1.610865586373003</v>
       </c>
       <c r="B84">
-        <v>1.611678123474121</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1.6116781234741211</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>1.600660337430938</v>
+        <v>1.6006603374309381</v>
       </c>
       <c r="B85">
         <v>1.606351375579834</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>1.595917448700566</v>
+        <v>1.5959174487005661</v>
       </c>
       <c r="B86">
         <v>1.599822878837585</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>1.596217951946224</v>
+        <v>1.5962179519462241</v>
       </c>
       <c r="B87">
         <v>1.59414279460907</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1.595806511463397</v>
       </c>
       <c r="B88">
-        <v>1.593533158302307</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1.5935331583023069</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1.59065078214807</v>
       </c>
       <c r="B89">
-        <v>1.591140270233154</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.5911402702331541</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>1.62599382797332</v>
+        <v>1.6259938279733199</v>
       </c>
       <c r="B90">
-        <v>1.585758924484253</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1.5857589244842529</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1.61574338628129</v>
       </c>
       <c r="B91">
-        <v>1.618559956550598</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1.6185599565505979</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1.605662676484654</v>
       </c>
       <c r="B92">
-        <v>1.608641743659973</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1.6086417436599729</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1.594974692152435</v>
       </c>
       <c r="B93">
-        <v>1.599627256393433</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1.5996272563934331</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1.590410243887195</v>
       </c>
@@ -1145,23 +1163,23 @@
         <v>1.590110778808594</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>1.585351706298818</v>
+        <v>1.5853517062988181</v>
       </c>
       <c r="B95">
         <v>1.586301326751709</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>1.579973714724238</v>
+        <v>1.5799737147242381</v>
       </c>
       <c r="B96">
         <v>1.580884695053101</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1.575218546527807</v>
       </c>
@@ -1169,39 +1187,39 @@
         <v>1.575448751449585</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1.569798484648868</v>
       </c>
       <c r="B98">
-        <v>1.573313117027283</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1.5733131170272829</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>1.570256537595036</v>
+        <v>1.5702565375950359</v>
       </c>
       <c r="B99">
-        <v>1.565333843231201</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1.5653338432312009</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1.565249873909438</v>
       </c>
       <c r="B100">
-        <v>1.565792798995972</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>1.5657927989959719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>1.559633933561147</v>
+        <v>1.5596339335611471</v>
       </c>
       <c r="B101">
         <v>1.560718417167664</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>1.56498205333921</v>
       </c>
@@ -1209,23 +1227,23 @@
         <v>1.55765700340271</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
-        <v>1.57497949984227</v>
+        <v>1.5749794998422699</v>
       </c>
       <c r="B103">
         <v>1.560899019241333</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
-        <v>1.565281116878046</v>
+        <v>1.5652811168780461</v>
       </c>
       <c r="B104">
         <v>1.569413900375366</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>1.559755497470126</v>
       </c>
@@ -1233,23 +1251,23 @@
         <v>1.557634115219116</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
-        <v>1.549897685670499</v>
+        <v>1.5498976856704989</v>
       </c>
       <c r="B106">
         <v>1.556180357933044</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
-        <v>1.543877153134502</v>
+        <v>1.5438771531345019</v>
       </c>
       <c r="B107">
-        <v>1.544662594795227</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1.5446625947952271</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>1.545018748869007</v>
       </c>
@@ -1257,47 +1275,47 @@
         <v>1.538745641708374</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
-        <v>1.544594015410291</v>
+        <v>1.5445940154102911</v>
       </c>
       <c r="B109">
         <v>1.541379570960999</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
-        <v>1.534308672175888</v>
+        <v>1.5343086721758881</v>
       </c>
       <c r="B110">
         <v>1.536861896514893</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
-        <v>1.528760394295848</v>
+        <v>1.5287603942958481</v>
       </c>
       <c r="B111">
-        <v>1.527994394302368</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1.5279943943023679</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
-        <v>1.528926024917984</v>
+        <v>1.5289260249179839</v>
       </c>
       <c r="B112">
-        <v>1.52362334728241</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>1.5236233472824099</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
-        <v>1.529091650133123</v>
+        <v>1.5290916501331231</v>
       </c>
       <c r="B113">
-        <v>1.52573835849762</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1.5257383584976201</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>1.523905932466125</v>
       </c>
@@ -1305,7 +1323,7 @@
         <v>1.521192073822021</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>1.518667541910061</v>
       </c>
@@ -1313,71 +1331,71 @@
         <v>1.516525864601135</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
-        <v>1.513648226642695</v>
+        <v>1.5136482266426949</v>
       </c>
       <c r="B116">
         <v>1.512603282928467</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
-        <v>1.513605018522903</v>
+        <v>1.5136050185229031</v>
       </c>
       <c r="B117">
-        <v>1.508911848068237</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1.5089118480682371</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>1.513947061486796</v>
       </c>
       <c r="B118">
-        <v>1.50971794128418</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1.5097179412841799</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
-        <v>1.533959919315879</v>
+        <v>1.5339599193158791</v>
       </c>
       <c r="B119">
         <v>1.508559942245483</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>1.53913727986531</v>
       </c>
       <c r="B120">
-        <v>1.528056502342224</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1.5280565023422239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
-        <v>1.523624797283874</v>
+        <v>1.5236247972838739</v>
       </c>
       <c r="B121">
-        <v>1.532323122024536</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>1.5323231220245359</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>1.513581303558915</v>
       </c>
       <c r="B122">
-        <v>1.515649318695068</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1.5156493186950679</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>1.507785074984791</v>
       </c>
       <c r="B123">
-        <v>1.50849187374115</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1.5084918737411499</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>1.503196067603733</v>
       </c>
@@ -1385,47 +1403,47 @@
         <v>1.502913355827332</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
-        <v>1.497822059699588</v>
+        <v>1.4978220596995879</v>
       </c>
       <c r="B125">
-        <v>1.49863862991333</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.4986386299133301</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
-        <v>1.492848534633516</v>
+        <v>1.4928485346335161</v>
       </c>
       <c r="B126">
         <v>1.493449449539185</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
-        <v>1.492414389867026</v>
+        <v>1.4924143898670259</v>
       </c>
       <c r="B127">
         <v>1.488420963287354</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
-        <v>1.487482776538081</v>
+        <v>1.4874827765380809</v>
       </c>
       <c r="B128">
-        <v>1.488732933998108</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>1.4887329339981079</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>1.482535148640411</v>
       </c>
       <c r="B129">
-        <v>1.487276792526245</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>1.4872767925262449</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>1.482787432222898</v>
       </c>
@@ -1433,15 +1451,15 @@
         <v>1.479393005371094</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
-        <v>1.476971179775059</v>
+        <v>1.4769711797750591</v>
       </c>
       <c r="B131">
-        <v>1.479365825653076</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>1.4793658256530759</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>1.481901555413728</v>
       </c>
@@ -1449,23 +1467,23 @@
         <v>1.473849296569824</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
-        <v>1.498136619887482</v>
+        <v>1.4981366198874819</v>
       </c>
       <c r="B133">
-        <v>1.479129672050476</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1.4791296720504761</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
-        <v>1.482077521439287</v>
+        <v>1.4820775214392869</v>
       </c>
       <c r="B134">
-        <v>1.490732908248901</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1.4907329082489009</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>1.477115531281215</v>
       </c>
@@ -1473,23 +1491,23 @@
         <v>1.476587653160095</v>
       </c>
     </row>
-    <row r="136" spans="1:2">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
-        <v>1.472077278305649</v>
+        <v>1.4720772783056491</v>
       </c>
       <c r="B136">
-        <v>1.472446918487549</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>1.4724469184875491</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>1.472248013656454</v>
       </c>
       <c r="B137">
-        <v>1.468812346458435</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>1.4688123464584351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>1.467010667227467</v>
       </c>
@@ -1497,103 +1515,103 @@
         <v>1.469988346099854</v>
       </c>
     </row>
-    <row r="139" spans="1:2">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
-        <v>1.461767249533538</v>
+        <v>1.4617672495335381</v>
       </c>
       <c r="B139">
-        <v>1.461095213890076</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>1.4610952138900759</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>1.456695267048971</v>
       </c>
       <c r="B140">
-        <v>1.45915961265564</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1.4591596126556401</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
-        <v>1.451354972758956</v>
+        <v>1.4513549727589561</v>
       </c>
       <c r="B141">
-        <v>1.45596182346344</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>1.4559618234634399</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
-        <v>1.451615926257375</v>
+        <v>1.4516159262573749</v>
       </c>
       <c r="B142">
         <v>1.448829770088196</v>
       </c>
     </row>
-    <row r="143" spans="1:2">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
-        <v>1.446816133217368</v>
+        <v>1.4468161332173679</v>
       </c>
       <c r="B143">
         <v>1.448112487792969</v>
       </c>
     </row>
-    <row r="144" spans="1:2">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>1.446757060776878</v>
       </c>
       <c r="B144">
-        <v>1.442546844482422</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>1.4425468444824221</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
-        <v>1.441379748144679</v>
+        <v>1.4413797481446791</v>
       </c>
       <c r="B145">
         <v>1.446988463401794</v>
       </c>
     </row>
-    <row r="146" spans="1:2">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>1.436245625220818</v>
       </c>
       <c r="B146">
-        <v>1.441965103149414</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2">
+        <v>1.4419651031494141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>1.436815415392483</v>
       </c>
       <c r="B147">
-        <v>1.437513828277588</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2">
+        <v>1.4375138282775879</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148">
-        <v>1.436294514586005</v>
+        <v>1.4362945145860051</v>
       </c>
       <c r="B148">
         <v>1.43414843082428</v>
       </c>
     </row>
-    <row r="149" spans="1:2">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149">
-        <v>1.441857531587801</v>
+        <v>1.4418575315878011</v>
       </c>
       <c r="B149">
         <v>1.436623334884644</v>
       </c>
     </row>
-    <row r="150" spans="1:2">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150">
-        <v>1.46720634847818</v>
+        <v>1.4672063484781801</v>
       </c>
       <c r="B150">
-        <v>1.439112305641174</v>
-      </c>
-    </row>
-    <row r="151" spans="1:2">
+        <v>1.4391123056411741</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>1.451864036784889</v>
       </c>
@@ -1601,71 +1619,71 @@
         <v>1.465032696723938</v>
       </c>
     </row>
-    <row r="152" spans="1:2">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152">
-        <v>1.44713797527485</v>
+        <v>1.4471379752748501</v>
       </c>
       <c r="B152">
         <v>1.448113322257996</v>
       </c>
     </row>
-    <row r="153" spans="1:2">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>1.441790586562399</v>
       </c>
       <c r="B153">
-        <v>1.444289326667786</v>
-      </c>
-    </row>
-    <row r="154" spans="1:2">
+        <v>1.4442893266677861</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154">
-        <v>1.431630947911111</v>
+        <v>1.4316309479111109</v>
       </c>
       <c r="B154">
-        <v>1.442313313484192</v>
-      </c>
-    </row>
-    <row r="155" spans="1:2">
+        <v>1.4423133134841919</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>1.431808424967369</v>
       </c>
       <c r="B155">
-        <v>1.432017207145691</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2">
+        <v>1.4320172071456909</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>1.426256258510687</v>
       </c>
       <c r="B156">
-        <v>1.430193901062012</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2">
+        <v>1.4301939010620119</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157">
-        <v>1.426087752892491</v>
+        <v>1.4260877528924909</v>
       </c>
       <c r="B157">
-        <v>1.426959991455078</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2">
+        <v>1.4269599914550779</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158">
-        <v>1.421263351003169</v>
+        <v>1.4212633510031689</v>
       </c>
       <c r="B158">
         <v>1.424625158309937</v>
       </c>
     </row>
-    <row r="159" spans="1:2">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>1.416327274879511</v>
       </c>
       <c r="B159">
-        <v>1.419641017913818</v>
-      </c>
-    </row>
-    <row r="160" spans="1:2">
+        <v>1.4196410179138179</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>1.416578182917599</v>
       </c>
@@ -1673,15 +1691,15 @@
         <v>1.416954398155212</v>
       </c>
     </row>
-    <row r="161" spans="1:2">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>1.410840172942518</v>
       </c>
       <c r="B161">
-        <v>1.416953682899475</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2">
+        <v>1.4169536828994751</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>1.41099496283478</v>
       </c>
@@ -1689,23 +1707,23 @@
         <v>1.41108226776123</v>
       </c>
     </row>
-    <row r="163" spans="1:2">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163">
-        <v>1.40617142903988</v>
+        <v>1.4061714290398799</v>
       </c>
       <c r="B163">
-        <v>1.411795139312744</v>
-      </c>
-    </row>
-    <row r="164" spans="1:2">
+        <v>1.4117951393127439</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>1.406335847969292</v>
       </c>
       <c r="B164">
-        <v>1.407191872596741</v>
-      </c>
-    </row>
-    <row r="165" spans="1:2">
+        <v>1.4071918725967409</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>1.400455239906651</v>
       </c>
@@ -1713,15 +1731,15 @@
         <v>1.406704425811768</v>
       </c>
     </row>
-    <row r="166" spans="1:2">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166">
-        <v>1.421786504605515</v>
+        <v>1.4217865046055149</v>
       </c>
       <c r="B166">
-        <v>1.398810386657715</v>
-      </c>
-    </row>
-    <row r="167" spans="1:2">
+        <v>1.3988103866577151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>1.432455272062543</v>
       </c>
